--- a/templates/3ASY05_Imaging/3ASY05_Imaging.xlsx
+++ b/templates/3ASY05_Imaging/3ASY05_Imaging.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\omaus\SWATE_templates\templates\3ASY05_Imaging\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD5D236-D390-4E7C-BA19-E9A7759809ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45EA1874-2F2F-417F-8ABB-A5DE94A76BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="174">
   <si>
     <t>Source Name</t>
   </si>
@@ -278,9 +278,6 @@
     <t>e60ba840-a310-4ea9-8a1e-5f4c979473f3</t>
   </si>
   <si>
-    <t>1.0.0</t>
-  </si>
-  <si>
     <t>Imaging assay</t>
   </si>
   <si>
@@ -567,6 +564,21 @@
   </si>
   <si>
     <t>colony</t>
+  </si>
+  <si>
+    <t>user-specific</t>
+  </si>
+  <si>
+    <t>CHMO</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/CHMO_0000087</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/CHMO_0000102</t>
+  </si>
+  <si>
+    <t>1.0.1</t>
   </si>
 </sst>
 </file>
@@ -1108,7 +1120,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="612" row="2">
+  <wetp:taskpane dockstate="right" visibility="0" width="665" row="2">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
   <wetp:taskpane dockstate="right" visibility="0" width="638" row="2">
@@ -1152,16 +1164,16 @@
     <col min="5" max="5" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30.85546875" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="37.85546875" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="67.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="30.85546875" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="37.85546875" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="36.7109375" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="27" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="56.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="36.7109375" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="30" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="31.140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="36.7109375" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="43.7109375" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="36.140625" bestFit="1" customWidth="1"/>
@@ -1182,7 +1194,7 @@
     <col min="35" max="35" width="34.28515625" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="36.7109375" hidden="1" customWidth="1"/>
     <col min="37" max="37" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="38" max="38" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="44.85546875" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="36.7109375" hidden="1" customWidth="1"/>
     <col min="40" max="40" width="43.7109375" hidden="1" customWidth="1"/>
     <col min="41" max="41" width="28" bestFit="1" customWidth="1"/>
@@ -1327,61 +1339,169 @@
     </row>
     <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E2" t="s">
         <v>152</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G2" t="s">
+        <v>169</v>
+      </c>
+      <c r="H2" t="s">
         <v>153</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K2" t="s">
         <v>154</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
+        <v>169</v>
+      </c>
+      <c r="M2" t="s">
+        <v>169</v>
+      </c>
+      <c r="N2" t="s">
         <v>155</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
+        <v>169</v>
+      </c>
+      <c r="P2" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q2" t="s">
         <v>156</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
+        <v>169</v>
+      </c>
+      <c r="S2" t="s">
+        <v>169</v>
+      </c>
+      <c r="T2" t="s">
         <v>157</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
+        <v>169</v>
+      </c>
+      <c r="V2" t="s">
+        <v>169</v>
+      </c>
+      <c r="W2" t="s">
         <v>158</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>169</v>
+      </c>
+      <c r="AL2" t="s">
         <v>159</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AM2" t="s">
+        <v>169</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>169</v>
+      </c>
+      <c r="AO2" t="s">
         <v>160</v>
       </c>
-      <c r="AO2" t="s">
-        <v>161</v>
+      <c r="AP2" t="s">
+        <v>169</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E3" t="s">
         <v>162</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G3" t="s">
+        <v>169</v>
+      </c>
+      <c r="H3" t="s">
         <v>163</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
+        <v>169</v>
+      </c>
+      <c r="J3" t="s">
+        <v>169</v>
+      </c>
+      <c r="K3" t="s">
         <v>164</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
+        <v>169</v>
+      </c>
+      <c r="M3" t="s">
+        <v>169</v>
+      </c>
+      <c r="T3" t="s">
         <v>165</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
+        <v>169</v>
+      </c>
+      <c r="V3" t="s">
+        <v>169</v>
+      </c>
+      <c r="AO3" t="s">
         <v>166</v>
       </c>
-      <c r="AO3" t="s">
-        <v>167</v>
+      <c r="AP3" t="s">
+        <v>169</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E4" t="s">
         <v>168</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G4" t="s">
         <v>169</v>
       </c>
     </row>
@@ -1420,7 +1540,7 @@
         <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1428,7 +1548,7 @@
         <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>73</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1436,7 +1556,7 @@
         <v>47</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1456,7 +1576,7 @@
         <v>50</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1470,10 +1590,10 @@
         <v>52</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>77</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1501,10 +1621,10 @@
         <v>56</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>81</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1530,7 +1650,7 @@
         <v>60</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1538,7 +1658,7 @@
         <v>61</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1631,40 +1751,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>93</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -1685,31 +1805,31 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>106</v>
-      </c>
       <c r="C3" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="J3" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="K3" s="13" t="s">
         <v>102</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>103</v>
       </c>
       <c r="L3" s="13"/>
     </row>
@@ -1718,28 +1838,28 @@
         <v>1</v>
       </c>
       <c r="B4" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>107</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>108</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H4" s="13"/>
       <c r="I4" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="J4" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="K4" s="13" t="s">
         <v>98</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>99</v>
       </c>
       <c r="L4" s="13"/>
     </row>
@@ -1748,28 +1868,28 @@
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>109</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>110</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H5" s="13"/>
       <c r="I5" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="J5" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="K5" s="13" t="s">
         <v>98</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>99</v>
       </c>
       <c r="L5" s="13"/>
     </row>
@@ -1778,28 +1898,28 @@
         <v>7</v>
       </c>
       <c r="B6" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>111</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>112</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="J6" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="K6" s="13" t="s">
         <v>98</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>99</v>
       </c>
       <c r="L6" s="13"/>
     </row>
@@ -1808,28 +1928,28 @@
         <v>10</v>
       </c>
       <c r="B7" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>113</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>114</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="J7" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="K7" s="13" t="s">
         <v>98</v>
-      </c>
-      <c r="K7" s="13" t="s">
-        <v>99</v>
       </c>
       <c r="L7" s="13"/>
     </row>
@@ -1838,28 +1958,28 @@
         <v>13</v>
       </c>
       <c r="B8" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>115</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>116</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
       <c r="G8" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="J8" s="13" t="s">
+      <c r="K8" s="13" t="s">
         <v>98</v>
-      </c>
-      <c r="K8" s="13" t="s">
-        <v>99</v>
       </c>
       <c r="L8" s="13"/>
     </row>
@@ -1868,28 +1988,28 @@
         <v>16</v>
       </c>
       <c r="B9" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>117</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>118</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H9" s="13"/>
       <c r="I9" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="J9" s="13" t="s">
+      <c r="K9" s="13" t="s">
         <v>98</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>99</v>
       </c>
       <c r="L9" s="13"/>
     </row>
@@ -1898,28 +2018,28 @@
         <v>19</v>
       </c>
       <c r="B10" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>119</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>120</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H10" s="13"/>
       <c r="I10" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="J10" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="J10" s="13" t="s">
+      <c r="K10" s="13" t="s">
         <v>98</v>
-      </c>
-      <c r="K10" s="13" t="s">
-        <v>99</v>
       </c>
       <c r="L10" s="13"/>
     </row>
@@ -1928,28 +2048,28 @@
         <v>22</v>
       </c>
       <c r="B11" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>121</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>122</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H11" s="13"/>
       <c r="I11" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="J11" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="J11" s="13" t="s">
+      <c r="K11" s="13" t="s">
         <v>98</v>
-      </c>
-      <c r="K11" s="13" t="s">
-        <v>99</v>
       </c>
       <c r="L11" s="13"/>
     </row>
@@ -1958,28 +2078,28 @@
         <v>25</v>
       </c>
       <c r="B12" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="13" t="s">
         <v>123</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>124</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H12" s="13"/>
       <c r="I12" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="J12" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="J12" s="13" t="s">
+      <c r="K12" s="13" t="s">
         <v>98</v>
-      </c>
-      <c r="K12" s="13" t="s">
-        <v>99</v>
       </c>
       <c r="L12" s="13"/>
     </row>
@@ -1988,20 +2108,20 @@
         <v>28</v>
       </c>
       <c r="B13" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>125</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>126</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
       <c r="I13" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J13" s="13"/>
       <c r="K13" s="13"/>
@@ -2012,20 +2132,20 @@
         <v>31</v>
       </c>
       <c r="B14" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>127</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>128</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
       <c r="I14" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J14" s="13"/>
       <c r="K14" s="13"/>
@@ -2036,28 +2156,28 @@
         <v>34</v>
       </c>
       <c r="B15" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="13" t="s">
         <v>129</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>130</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
       <c r="G15" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H15" s="13"/>
       <c r="I15" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="J15" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="J15" s="13" t="s">
+      <c r="K15" s="13" t="s">
         <v>98</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>99</v>
       </c>
       <c r="L15" s="13"/>
     </row>
@@ -2066,20 +2186,20 @@
         <v>37</v>
       </c>
       <c r="B16" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="13" t="s">
         <v>131</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>132</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
       <c r="I16" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J16" s="13"/>
       <c r="K16" s="13"/>
@@ -2090,20 +2210,20 @@
         <v>40</v>
       </c>
       <c r="B17" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="13" t="s">
         <v>133</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>134</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
       <c r="I17" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J17" s="13"/>
       <c r="K17" s="13"/>
@@ -2154,40 +2274,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>93</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -2208,30 +2328,30 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>106</v>
-      </c>
       <c r="C3" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="H3" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="H3" s="13" t="s">
-        <v>138</v>
-      </c>
       <c r="I3" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
@@ -2241,28 +2361,28 @@
         <v>1</v>
       </c>
       <c r="B4" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>107</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>108</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H4" s="13"/>
       <c r="I4" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L4" s="13"/>
     </row>
@@ -2271,28 +2391,28 @@
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>109</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>110</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H5" s="13"/>
       <c r="I5" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L5" s="13"/>
     </row>
@@ -2301,28 +2421,28 @@
         <v>7</v>
       </c>
       <c r="B6" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>111</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>112</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L6" s="13"/>
     </row>
@@ -2331,28 +2451,28 @@
         <v>10</v>
       </c>
       <c r="B7" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>113</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>114</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L7" s="13"/>
     </row>
@@ -2361,28 +2481,28 @@
         <v>13</v>
       </c>
       <c r="B8" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>115</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>116</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
       <c r="G8" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L8" s="13"/>
     </row>
@@ -2391,27 +2511,27 @@
         <v>16</v>
       </c>
       <c r="B9" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>117</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>118</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="H9" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="H9" s="13" t="s">
-        <v>142</v>
-      </c>
       <c r="I9" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" s="13" t="s">
         <v>97</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>98</v>
       </c>
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
@@ -2421,28 +2541,28 @@
         <v>19</v>
       </c>
       <c r="B10" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>119</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>120</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H10" s="13"/>
       <c r="I10" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L10" s="13"/>
     </row>
@@ -2451,28 +2571,28 @@
         <v>22</v>
       </c>
       <c r="B11" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>121</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>122</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H11" s="13"/>
       <c r="I11" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L11" s="13"/>
     </row>
@@ -2481,28 +2601,28 @@
         <v>25</v>
       </c>
       <c r="B12" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="13" t="s">
         <v>123</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>124</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H12" s="13"/>
       <c r="I12" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L12" s="13"/>
     </row>
@@ -2511,30 +2631,30 @@
         <v>28</v>
       </c>
       <c r="B13" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>125</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>126</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="H13" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="I13" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="K13" s="13" t="s">
         <v>144</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="K13" s="13" t="s">
-        <v>145</v>
       </c>
       <c r="L13" s="13"/>
     </row>
@@ -2543,30 +2663,30 @@
         <v>31</v>
       </c>
       <c r="B14" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>127</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>128</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="H14" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="H14" s="13" t="s">
-        <v>147</v>
-      </c>
       <c r="I14" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="J14" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="J14" s="13" t="s">
-        <v>98</v>
-      </c>
       <c r="K14" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L14" s="13"/>
     </row>
@@ -2575,28 +2695,28 @@
         <v>34</v>
       </c>
       <c r="B15" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="13" t="s">
         <v>129</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>130</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
       <c r="G15" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H15" s="13"/>
       <c r="I15" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L15" s="13"/>
     </row>
@@ -2605,27 +2725,27 @@
         <v>37</v>
       </c>
       <c r="B16" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="13" t="s">
         <v>131</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>132</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
       <c r="G16" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="H16" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="H16" s="13" t="s">
-        <v>149</v>
-      </c>
       <c r="I16" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="J16" s="13" t="s">
         <v>101</v>
-      </c>
-      <c r="J16" s="13" t="s">
-        <v>102</v>
       </c>
       <c r="K16" s="13"/>
       <c r="L16" s="13"/>
@@ -2635,27 +2755,27 @@
         <v>40</v>
       </c>
       <c r="B17" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="13" t="s">
         <v>133</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>134</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="H17" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="H17" s="13" t="s">
-        <v>151</v>
-      </c>
       <c r="I17" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="J17" s="13" t="s">
         <v>97</v>
-      </c>
-      <c r="J17" s="13" t="s">
-        <v>98</v>
       </c>
       <c r="K17" s="13"/>
       <c r="L17" s="13"/>
